--- a/SDWGAME/Assets/Resources/DataList/ALT_DataList_0329.xlsx
+++ b/SDWGAME/Assets/Resources/DataList/ALT_DataList_0329.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quino0627/Documents/multicultural/multicultural-game-challenge/SDWGAME/Assets/Resources/DataList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBEFC26-0F16-6F4B-B072-E98492DBB065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA9471-6D7E-B04A-B252-351B0AE1F2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" activeTab="1" xr2:uid="{7DA9DAFE-826A-4A2F-8007-BA43BF58A5F7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{7DA9DAFE-826A-4A2F-8007-BA43BF58A5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="411">
   <si>
     <t>Stage</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,9 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>det_1-01</t>
-  </si>
-  <si>
     <t>원자극</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -955,6 +952,564 @@
   <si>
     <t>원자극음성</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_1_W2</t>
+  </si>
+  <si>
+    <t>S1_1_W3</t>
+  </si>
+  <si>
+    <t>S1_1_W4</t>
+  </si>
+  <si>
+    <t>S1_1_W5</t>
+  </si>
+  <si>
+    <t>S1_1_W6</t>
+  </si>
+  <si>
+    <t>S1_1_W7</t>
+  </si>
+  <si>
+    <t>S1_1_W8</t>
+  </si>
+  <si>
+    <t>S1_1_W9</t>
+  </si>
+  <si>
+    <t>S1_1_W10</t>
+  </si>
+  <si>
+    <t>S1_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_2_W12</t>
+  </si>
+  <si>
+    <t>S1_2_W13</t>
+  </si>
+  <si>
+    <t>S1_2_W14</t>
+  </si>
+  <si>
+    <t>S1_2_W15</t>
+  </si>
+  <si>
+    <t>S1_2_W16</t>
+  </si>
+  <si>
+    <t>S1_2_W17</t>
+  </si>
+  <si>
+    <t>S1_2_W18</t>
+  </si>
+  <si>
+    <t>S1_2_W19</t>
+  </si>
+  <si>
+    <t>S1_2_W20</t>
+  </si>
+  <si>
+    <t>S1_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_3_W22</t>
+  </si>
+  <si>
+    <t>S1_3_W23</t>
+  </si>
+  <si>
+    <t>S1_3_W24</t>
+  </si>
+  <si>
+    <t>S1_3_W25</t>
+  </si>
+  <si>
+    <t>S1_3_W26</t>
+  </si>
+  <si>
+    <t>S1_3_W27</t>
+  </si>
+  <si>
+    <t>S1_3_W28</t>
+  </si>
+  <si>
+    <t>S1_3_W29</t>
+  </si>
+  <si>
+    <t>S1_3_W30</t>
+  </si>
+  <si>
+    <t>S1_1_P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_1_P2</t>
+  </si>
+  <si>
+    <t>S1_1_P3</t>
+  </si>
+  <si>
+    <t>S1_1_P4</t>
+  </si>
+  <si>
+    <t>S1_1_P5</t>
+  </si>
+  <si>
+    <t>S1_1_P6</t>
+  </si>
+  <si>
+    <t>S1_1_P7</t>
+  </si>
+  <si>
+    <t>S1_1_P8</t>
+  </si>
+  <si>
+    <t>S1_1_P9</t>
+  </si>
+  <si>
+    <t>S1_1_P10</t>
+  </si>
+  <si>
+    <t>S1_2_P11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_2_P12</t>
+  </si>
+  <si>
+    <t>S1_2_P13</t>
+  </si>
+  <si>
+    <t>S1_2_P14</t>
+  </si>
+  <si>
+    <t>S1_2_P15</t>
+  </si>
+  <si>
+    <t>S1_2_P16</t>
+  </si>
+  <si>
+    <t>S1_2_P17</t>
+  </si>
+  <si>
+    <t>S1_2_P18</t>
+  </si>
+  <si>
+    <t>S1_2_P19</t>
+  </si>
+  <si>
+    <t>S1_2_P20</t>
+  </si>
+  <si>
+    <t>S1_3_P21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_3_P22</t>
+  </si>
+  <si>
+    <t>S1_3_P23</t>
+  </si>
+  <si>
+    <t>S1_3_P24</t>
+  </si>
+  <si>
+    <t>S1_3_P25</t>
+  </si>
+  <si>
+    <t>S1_3_P26</t>
+  </si>
+  <si>
+    <t>S1_3_P27</t>
+  </si>
+  <si>
+    <t>S1_3_P28</t>
+  </si>
+  <si>
+    <t>S1_3_P29</t>
+  </si>
+  <si>
+    <t>S1_3_P30</t>
+  </si>
+  <si>
+    <t>S2_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_1_W2</t>
+  </si>
+  <si>
+    <t>S2_1_W3</t>
+  </si>
+  <si>
+    <t>S2_1_W4</t>
+  </si>
+  <si>
+    <t>S2_1_W5</t>
+  </si>
+  <si>
+    <t>S2_1_W6</t>
+  </si>
+  <si>
+    <t>S2_1_W7</t>
+  </si>
+  <si>
+    <t>S2_1_W8</t>
+  </si>
+  <si>
+    <t>S2_1_W9</t>
+  </si>
+  <si>
+    <t>S2_1_W10</t>
+  </si>
+  <si>
+    <t>S2_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_2_W12</t>
+  </si>
+  <si>
+    <t>S2_2_W13</t>
+  </si>
+  <si>
+    <t>S2_2_W14</t>
+  </si>
+  <si>
+    <t>S2_2_W15</t>
+  </si>
+  <si>
+    <t>S2_2_W16</t>
+  </si>
+  <si>
+    <t>S2_2_W17</t>
+  </si>
+  <si>
+    <t>S2_2_W18</t>
+  </si>
+  <si>
+    <t>S2_2_W19</t>
+  </si>
+  <si>
+    <t>S2_2_W20</t>
+  </si>
+  <si>
+    <t>S2_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_3_W22</t>
+  </si>
+  <si>
+    <t>S2_3_W23</t>
+  </si>
+  <si>
+    <t>S2_3_W24</t>
+  </si>
+  <si>
+    <t>S2_3_W25</t>
+  </si>
+  <si>
+    <t>S2_3_W26</t>
+  </si>
+  <si>
+    <t>S2_3_W27</t>
+  </si>
+  <si>
+    <t>S2_3_W28</t>
+  </si>
+  <si>
+    <t>S2_3_W29</t>
+  </si>
+  <si>
+    <t>S2_3_W30</t>
+  </si>
+  <si>
+    <t>S2_1_P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_1_P2</t>
+  </si>
+  <si>
+    <t>S2_1_P3</t>
+  </si>
+  <si>
+    <t>S2_1_P4</t>
+  </si>
+  <si>
+    <t>S2_1_P5</t>
+  </si>
+  <si>
+    <t>S2_1_P6</t>
+  </si>
+  <si>
+    <t>S2_1_P7</t>
+  </si>
+  <si>
+    <t>S2_1_P8</t>
+  </si>
+  <si>
+    <t>S2_1_P9</t>
+  </si>
+  <si>
+    <t>S2_1_P10</t>
+  </si>
+  <si>
+    <t>S2_2_P11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_2_P12</t>
+  </si>
+  <si>
+    <t>S2_2_P13</t>
+  </si>
+  <si>
+    <t>S2_2_P14</t>
+  </si>
+  <si>
+    <t>S2_2_P15</t>
+  </si>
+  <si>
+    <t>S2_2_P16</t>
+  </si>
+  <si>
+    <t>S2_2_P17</t>
+  </si>
+  <si>
+    <t>S2_2_P18</t>
+  </si>
+  <si>
+    <t>S2_2_P19</t>
+  </si>
+  <si>
+    <t>S2_2_P20</t>
+  </si>
+  <si>
+    <t>S2_3_P21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_3_P22</t>
+  </si>
+  <si>
+    <t>S2_3_P23</t>
+  </si>
+  <si>
+    <t>S2_3_P24</t>
+  </si>
+  <si>
+    <t>S2_3_P25</t>
+  </si>
+  <si>
+    <t>S2_3_P26</t>
+  </si>
+  <si>
+    <t>S2_3_P27</t>
+  </si>
+  <si>
+    <t>S2_3_P28</t>
+  </si>
+  <si>
+    <t>S2_3_P29</t>
+  </si>
+  <si>
+    <t>S2_3_P30</t>
+  </si>
+  <si>
+    <t>S3_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_1_W2</t>
+  </si>
+  <si>
+    <t>S3_1_W3</t>
+  </si>
+  <si>
+    <t>S3_1_W4</t>
+  </si>
+  <si>
+    <t>S3_1_W5</t>
+  </si>
+  <si>
+    <t>S3_1_W6</t>
+  </si>
+  <si>
+    <t>S3_1_W7</t>
+  </si>
+  <si>
+    <t>S3_1_W8</t>
+  </si>
+  <si>
+    <t>S3_1_W9</t>
+  </si>
+  <si>
+    <t>S3_1_W10</t>
+  </si>
+  <si>
+    <t>S3_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_2_W12</t>
+  </si>
+  <si>
+    <t>S3_2_W13</t>
+  </si>
+  <si>
+    <t>S3_2_W14</t>
+  </si>
+  <si>
+    <t>S3_2_W15</t>
+  </si>
+  <si>
+    <t>S3_2_W16</t>
+  </si>
+  <si>
+    <t>S3_2_W17</t>
+  </si>
+  <si>
+    <t>S3_2_W18</t>
+  </si>
+  <si>
+    <t>S3_2_W19</t>
+  </si>
+  <si>
+    <t>S3_2_W20</t>
+  </si>
+  <si>
+    <t>S3_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_3_W22</t>
+  </si>
+  <si>
+    <t>S3_3_W23</t>
+  </si>
+  <si>
+    <t>S3_3_W24</t>
+  </si>
+  <si>
+    <t>S3_3_W25</t>
+  </si>
+  <si>
+    <t>S3_3_W26</t>
+  </si>
+  <si>
+    <t>S3_3_W27</t>
+  </si>
+  <si>
+    <t>S3_3_W28</t>
+  </si>
+  <si>
+    <t>S3_3_W29</t>
+  </si>
+  <si>
+    <t>S3_3_W30</t>
+  </si>
+  <si>
+    <t>S3_1_P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_1_P2</t>
+  </si>
+  <si>
+    <t>S3_1_P3</t>
+  </si>
+  <si>
+    <t>S3_1_P4</t>
+  </si>
+  <si>
+    <t>S3_1_P5</t>
+  </si>
+  <si>
+    <t>S3_1_P6</t>
+  </si>
+  <si>
+    <t>S3_1_P7</t>
+  </si>
+  <si>
+    <t>S3_1_P8</t>
+  </si>
+  <si>
+    <t>S3_1_P9</t>
+  </si>
+  <si>
+    <t>S3_1_P10</t>
+  </si>
+  <si>
+    <t>S3_2_P11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_2_P12</t>
+  </si>
+  <si>
+    <t>S3_2_P13</t>
+  </si>
+  <si>
+    <t>S3_2_P14</t>
+  </si>
+  <si>
+    <t>S3_2_P15</t>
+  </si>
+  <si>
+    <t>S3_2_P16</t>
+  </si>
+  <si>
+    <t>S3_2_P17</t>
+  </si>
+  <si>
+    <t>S3_2_P18</t>
+  </si>
+  <si>
+    <t>S3_2_P19</t>
+  </si>
+  <si>
+    <t>S3_2_P20</t>
+  </si>
+  <si>
+    <t>S3_3_P21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_3_P22</t>
+  </si>
+  <si>
+    <t>S3_3_P23</t>
+  </si>
+  <si>
+    <t>S3_3_P24</t>
+  </si>
+  <si>
+    <t>S3_3_P25</t>
+  </si>
+  <si>
+    <t>S3_3_P26</t>
+  </si>
+  <si>
+    <t>S3_3_P27</t>
+  </si>
+  <si>
+    <t>S3_3_P28</t>
+  </si>
+  <si>
+    <t>S3_3_P29</t>
+  </si>
+  <si>
+    <t>S3_3_P30</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8BA7C2-E49A-4CB4-98B5-49DA0D533A44}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1404,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1413,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1434,10 +1989,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1457,31 +2012,31 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>14</v>
+      <c r="L2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1501,31 +2056,31 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1545,31 +2100,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1589,31 +2144,31 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1633,31 +2188,31 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1677,31 +2232,31 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1721,31 +2276,31 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1765,31 +2320,31 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1809,31 +2364,31 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1853,31 +2408,31 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>14</v>
+      <c r="L11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1897,31 +2452,31 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1941,31 +2496,31 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1985,31 +2540,31 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>14</v>
+      <c r="L14" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2029,31 +2584,31 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2073,31 +2628,31 @@
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2117,31 +2672,31 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2161,31 +2716,31 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2205,31 +2760,31 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2249,31 +2804,31 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>14</v>
+      <c r="L20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2293,31 +2848,31 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="K21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2337,31 +2892,31 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2381,31 +2936,31 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>14</v>
+      <c r="L23" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -2425,31 +2980,31 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>14</v>
+      <c r="L24" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -2469,31 +3024,31 @@
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="J25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -2513,31 +3068,31 @@
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -2557,31 +3112,31 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -2601,31 +3156,31 @@
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="G28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>14</v>
+      <c r="L28" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -2645,31 +3200,31 @@
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="G29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>14</v>
+      <c r="L29" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -2689,31 +3244,31 @@
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="G30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -2733,31 +3288,31 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -2773,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5369DE2A-FF06-40E4-9BDE-8ED8465D58C3}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2784,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2793,10 +3348,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2814,10 +3369,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2837,31 +3392,31 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -2881,31 +3436,31 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -2925,31 +3480,31 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>14</v>
+      <c r="L4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -2969,31 +3524,31 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -3013,31 +3568,31 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -3057,31 +3612,31 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>14</v>
+      <c r="L7" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -3101,31 +3656,31 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="G8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
+        <v>109</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -3145,31 +3700,31 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3189,31 +3744,31 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="G10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3233,31 +3788,31 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>14</v>
+      <c r="L11" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3277,31 +3832,31 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3321,31 +3876,31 @@
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3365,31 +3920,31 @@
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3409,31 +3964,31 @@
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3453,31 +4008,31 @@
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3497,31 +4052,31 @@
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3541,31 +4096,31 @@
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3585,31 +4140,31 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="K19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3629,31 +4184,31 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3673,31 +4228,31 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3717,31 +4272,31 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3761,31 +4316,31 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -3805,31 +4360,31 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3849,31 +4404,31 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="G25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="K25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -3893,31 +4448,31 @@
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>14</v>
+      <c r="L26" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -3937,31 +4492,31 @@
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -3981,31 +4536,31 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -4025,31 +4580,31 @@
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -4069,31 +4624,31 @@
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -4113,31 +4668,31 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -4154,7 +4709,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M31"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4164,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4173,10 +4728,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -4194,10 +4749,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -4211,37 +4766,37 @@
         <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>14</v>
+      <c r="L2" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -4255,37 +4810,37 @@
         <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>14</v>
+      <c r="L3" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -4299,37 +4854,37 @@
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>14</v>
+        <v>138</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -4343,37 +4898,37 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -4387,37 +4942,37 @@
         <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>14</v>
+        <v>115</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -4431,37 +4986,37 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>14</v>
+      <c r="L7" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -4475,37 +5030,37 @@
         <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
+      <c r="L8" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -4519,37 +5074,37 @@
         <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -4563,37 +5118,37 @@
         <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -4607,37 +5162,37 @@
         <v>69</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="K11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>14</v>
+        <v>133</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -4651,37 +5206,37 @@
         <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -4695,37 +5250,37 @@
         <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -4739,37 +5294,37 @@
         <v>72</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="J14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -4783,37 +5338,37 @@
         <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="J15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>14</v>
+        <v>183</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -4827,37 +5382,37 @@
         <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -4871,37 +5426,37 @@
         <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="G17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>14</v>
+      <c r="L17" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -4915,37 +5470,37 @@
         <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -4959,37 +5514,37 @@
         <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>14</v>
+      <c r="L19" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -5003,37 +5558,37 @@
         <v>78</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>14</v>
+      <c r="L20" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -5047,37 +5602,37 @@
         <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="K21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -5091,37 +5646,37 @@
         <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="G22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>14</v>
+      <c r="L22" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -5135,37 +5690,37 @@
         <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>14</v>
+      <c r="L23" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -5179,37 +5734,37 @@
         <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -5223,37 +5778,37 @@
         <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>14</v>
+      <c r="L25" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -5267,37 +5822,37 @@
         <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -5311,37 +5866,37 @@
         <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -5355,37 +5910,37 @@
         <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4">
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -5399,37 +5954,37 @@
         <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -5443,37 +5998,37 @@
         <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>14</v>
+      <c r="L30" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -5487,37 +6042,37 @@
         <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
